--- a/The Harpoon/Mr Philip Jones.xlsx
+++ b/The Harpoon/Mr Philip Jones.xlsx
@@ -9,9 +9,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Fund Management\Fund Management Team Files\FM Personal Folders\Richard\PycharmProjects\The Harpoon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450F1148-DEF2-4A35-9424-83E4B47888DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F682B87-41F9-462A-9685-02CD93F727CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11880" yWindow="-20865" windowWidth="19350" windowHeight="7605" tabRatio="876" activeTab="2" xr2:uid="{999F52BA-D2FF-425D-8559-FEC8672B03CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="876" activeTab="1" xr2:uid="{999F52BA-D2FF-425D-8559-FEC8672B03CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio holdings" sheetId="1" r:id="rId1"/>
@@ -2722,20 +2722,20 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.73046875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
         <v>182</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>0.05</v>
       </c>
       <c r="D2" s="14">
-        <f t="shared" ref="D2:D11" si="0">C2/$C$13</f>
+        <f t="shared" ref="D2:D9" si="0">C2/$C$13</f>
         <v>4.9999999999999989E-2</v>
       </c>
       <c r="E2" s="86" t="s">
@@ -2782,14 +2782,14 @@
         <v>1</v>
       </c>
       <c r="G2" s="15">
-        <f t="shared" ref="G2:G11" si="1">D2*100</f>
+        <f t="shared" ref="G2:G9" si="1">D2*100</f>
         <v>4.9999999999999991</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
         <v>184</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>186</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
         <v>188</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
         <v>190</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
         <v>192</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
         <v>194</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
         <v>196</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="41"/>
       <c r="B10" s="86"/>
       <c r="C10" s="86"/>
@@ -2997,7 +2997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="41"/>
       <c r="B11" s="86"/>
       <c r="C11" s="86"/>
@@ -3006,14 +3006,14 @@
       <c r="F11" s="13"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" s="2"/>
       <c r="D12" s="14"/>
       <c r="E12" s="86"/>
       <c r="F12" s="13"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="18" t="s">
         <v>18</v>
       </c>
@@ -3032,13 +3032,13 @@
       </c>
       <c r="G13" s="19"/>
     </row>
-    <row r="14" spans="1:9" ht="14.65" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="6"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="6"/>
@@ -3064,14 +3064,14 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
         <v>72</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>74</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>Mr P. Jones</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>75</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>7-8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>76</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>77</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
         <v>80</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>91</v>
       </c>
@@ -3132,7 +3132,7 @@
         <v>3.9999999999999994E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>96</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>0.56999999999999984</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>93</v>
       </c>
@@ -3150,7 +3150,7 @@
         <v>0.33999999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>92</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>95</v>
       </c>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="D11" s="74"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>94</v>
       </c>
@@ -3178,7 +3178,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -3187,43 +3187,43 @@
         <v>0.90999999999999981</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>111</v>
       </c>
       <c r="B14" s="74">
         <f>'Portfolio Comparison'!B10</f>
-        <v>0.96000000000000008</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>102</v>
       </c>
       <c r="B16" s="74"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>113</v>
       </c>
       <c r="B18" s="74"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="75" t="s">
         <v>120</v>
       </c>
@@ -3232,12 +3232,12 @@
         <v>0.20799999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
         <v>121</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="75" t="s">
         <v>123</v>
       </c>
@@ -3255,12 +3255,12 @@
         <v>0.30599999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
         <v>125</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="49" t="s">
         <v>129</v>
       </c>
@@ -3278,12 +3278,12 @@
         <v>-5.8000000000000003E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="49" t="s">
         <v>131</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>-4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
         <v>137</v>
       </c>
@@ -3301,12 +3301,12 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="49" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
         <v>139</v>
       </c>
@@ -3315,17 +3315,17 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="49" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
         <v>166</v>
       </c>
@@ -3340,22 +3340,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2917F4D8-689C-41CD-9D4B-F66DDC724423}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="19.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.86328125" customWidth="1"/>
-    <col min="3" max="3" width="11.265625" customWidth="1"/>
-    <col min="4" max="4" width="35.73046875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.86328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="str">
         <f>LEFT(H21, 8) &amp; " RR " &amp; MID(H21, 10, 5)</f>
         <v>Margetts RR 7-8</v>
@@ -3442,7 +3442,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="str">
         <f>H27 &amp;" "&amp; H28</f>
         <v>Mr P. Jones Scottish Widows Pension</v>
@@ -3492,7 +3492,7 @@
         <v>6.8499999999999979</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>140</v>
       </c>
@@ -3524,8 +3524,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="6" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
@@ -3624,13 +3624,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="10">
-        <f>SUM(B8:B9)</f>
-        <v>0.96000000000000008</v>
+        <v>0.96</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="12" t="s">
@@ -3650,7 +3649,7 @@
       </c>
       <c r="J10" s="41"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="9"/>
       <c r="F11" s="54"/>
       <c r="G11" s="71" t="s">
@@ -3661,7 +3660,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="9"/>
       <c r="F12" s="54"/>
       <c r="G12" s="71" t="s">
@@ -3672,7 +3671,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="1"/>
       <c r="F13" s="54"/>
@@ -3684,7 +3683,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
@@ -3697,7 +3696,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="1"/>
       <c r="F15" s="54"/>
@@ -3709,7 +3708,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="1"/>
       <c r="F16" s="54"/>
@@ -3721,11 +3720,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="1"/>
       <c r="G18" s="42" t="s">
@@ -3733,7 +3732,7 @@
       </c>
       <c r="H18" s="40"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19" s="1"/>
       <c r="G19" s="33" t="s">
@@ -3743,7 +3742,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="str">
         <f>"Portfolio Allocations:"&amp;CHAR(10)&amp; A3 &amp;" against "&amp;A2</f>
         <v>Portfolio Allocations:
@@ -3758,7 +3757,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="G21" s="34" t="s">
         <v>54</v>
@@ -3768,7 +3767,7 @@
       </c>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="G22" s="38" t="s">
         <v>55</v>
@@ -3778,7 +3777,7 @@
       </c>
       <c r="K22" s="45"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="G23" s="38" t="s">
         <v>63</v>
@@ -3788,7 +3787,7 @@
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24"/>
       <c r="B24" s="1"/>
       <c r="G24" s="38" t="s">
@@ -3798,7 +3797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25"/>
       <c r="B25" s="1"/>
       <c r="G25" s="38" t="s">
@@ -3810,7 +3809,7 @@
       </c>
       <c r="I25" s="41"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="B26" s="1"/>
       <c r="G26" s="38" t="s">
@@ -3821,7 +3820,7 @@
         <v>9.9999999999999985E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27"/>
       <c r="B27" s="1"/>
       <c r="G27" s="38" t="s">
@@ -3831,7 +3830,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="1"/>
       <c r="G28" s="39" t="s">
@@ -3870,17 +3869,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04798506-4781-40D5-823A-182FA1CD1F43}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="68" t="s">
         <v>70</v>
       </c>
@@ -3891,7 +3890,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="55">
         <v>5</v>
       </c>
@@ -3902,7 +3901,7 @@
         <v>0.19700000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="55">
         <v>3</v>
       </c>
@@ -3913,7 +3912,7 @@
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="55">
         <v>1</v>
       </c>
@@ -3924,7 +3923,7 @@
         <v>-4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="55" t="s">
         <v>71</v>
       </c>
@@ -3935,14 +3934,14 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="83" t="s">
         <v>148</v>
       </c>
       <c r="B6" s="84"/>
       <c r="C6" s="85"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>2018</v>
       </c>
@@ -3953,7 +3952,7 @@
         <v>-9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="55">
         <v>2019</v>
       </c>
@@ -3964,7 +3963,7 @@
         <v>0.223</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="55">
         <v>2020</v>
       </c>
@@ -3975,7 +3974,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="55">
         <v>2021</v>
       </c>
@@ -3986,7 +3985,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="55">
         <v>2022</v>
       </c>
@@ -3997,7 +3996,7 @@
         <v>-0.111</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="56" t="s">
         <v>178</v>
       </c>
@@ -4022,12 +4021,12 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="14.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35"/>
       <c r="B1" s="22" t="s">
         <v>30</v>
@@ -4066,7 +4065,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="36" t="s">
         <v>5</v>
       </c>
@@ -4103,7 +4102,7 @@
       <c r="L2" s="3"/>
       <c r="M2" s="28"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>2</v>
       </c>
@@ -4144,7 +4143,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>56</v>
       </c>
@@ -4173,7 +4172,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="28"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>12</v>
       </c>
@@ -4208,7 +4207,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
         <v>10</v>
       </c>
@@ -4245,7 +4244,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>11</v>
       </c>
@@ -4282,7 +4281,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
@@ -4319,7 +4318,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
         <v>8</v>
       </c>
@@ -4356,7 +4355,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
         <v>9</v>
       </c>
@@ -4393,7 +4392,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
         <v>17</v>
       </c>
@@ -4424,27 +4423,27 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="21"/>
       <c r="B1" s="22" t="s">
         <v>30</v>
@@ -4495,7 +4494,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>46</v>
       </c>
@@ -4548,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>47</v>
       </c>
@@ -4601,7 +4600,7 @@
         <v>1.9900000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>49</v>
       </c>
@@ -4654,7 +4653,7 @@
         <v>2.01E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="O5" s="25" t="s">
         <v>51</v>
       </c>
@@ -4668,7 +4667,7 @@
         <v>2.0400000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O6" s="24" t="s">
         <v>52</v>
       </c>
@@ -4696,14 +4695,14 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.59765625" style="49" customWidth="1"/>
-    <col min="2" max="2" width="29.1328125" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.1328125" style="49"/>
+    <col min="1" max="1" width="59.5703125" style="49" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
         <v>73</v>
       </c>
@@ -4711,7 +4710,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>65</v>
       </c>
@@ -4719,7 +4718,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>74</v>
       </c>
@@ -4727,7 +4726,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
         <v>149</v>
       </c>
@@ -4735,7 +4734,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>75</v>
       </c>
@@ -4743,7 +4742,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>150</v>
       </c>
@@ -4751,52 +4750,52 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="52" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="47.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>67</v>
       </c>
@@ -4815,14 +4814,14 @@
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="129.59765625" customWidth="1"/>
-    <col min="2" max="2" width="41.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.1328125" customWidth="1"/>
+    <col min="1" max="1" width="129.5703125" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
         <v>82</v>
       </c>
@@ -4830,7 +4829,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>74</v>
       </c>
@@ -4839,7 +4838,7 @@
       </c>
       <c r="F2" s="49"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>165</v>
       </c>
@@ -4848,7 +4847,7 @@
       </c>
       <c r="F3" s="49"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>75</v>
       </c>
@@ -4857,7 +4856,7 @@
       </c>
       <c r="F4" s="49"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>76</v>
       </c>
@@ -4865,7 +4864,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
         <v>83</v>
       </c>
@@ -4873,7 +4872,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>91</v>
       </c>
@@ -4881,7 +4880,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="48" t="s">
         <v>124</v>
       </c>
@@ -4889,7 +4888,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>103</v>
       </c>
@@ -4897,7 +4896,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>97</v>
       </c>
@@ -4905,7 +4904,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>75</v>
       </c>
@@ -4913,7 +4912,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>87</v>
       </c>
@@ -4921,7 +4920,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
         <v>92</v>
       </c>
@@ -4929,7 +4928,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
         <v>84</v>
       </c>
@@ -4937,7 +4936,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
         <v>76</v>
       </c>
@@ -4945,7 +4944,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
         <v>85</v>
       </c>
@@ -4953,7 +4952,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
         <v>74</v>
       </c>
@@ -4961,7 +4960,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="51" t="s">
         <v>151</v>
       </c>
@@ -4969,7 +4968,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
         <v>93</v>
       </c>
@@ -4977,7 +4976,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
         <v>86</v>
       </c>
@@ -4985,162 +4984,162 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="47" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="47" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="47" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="49" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="47.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="73" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="47" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>112</v>
       </c>
@@ -5157,13 +5156,13 @@
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="95.73046875" style="49" customWidth="1"/>
-    <col min="2" max="2" width="49.3984375" customWidth="1"/>
+    <col min="1" max="1" width="95.7109375" style="49" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>115</v>
       </c>
@@ -5171,7 +5170,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>117</v>
       </c>
@@ -5179,7 +5178,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
         <v>75</v>
       </c>
@@ -5187,7 +5186,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="76" t="s">
         <v>118</v>
       </c>
@@ -5195,7 +5194,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="75" t="s">
         <v>120</v>
       </c>
@@ -5203,7 +5202,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
         <v>119</v>
       </c>
@@ -5211,7 +5210,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>142</v>
       </c>
@@ -5219,7 +5218,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>146</v>
       </c>
@@ -5227,7 +5226,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="49" t="s">
         <v>74</v>
       </c>
@@ -5235,7 +5234,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>141</v>
       </c>
@@ -5243,7 +5242,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>121</v>
       </c>
@@ -5251,7 +5250,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>152</v>
       </c>
@@ -5259,7 +5258,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
         <v>76</v>
       </c>
@@ -5267,7 +5266,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="47" t="s">
         <v>122</v>
       </c>
@@ -5275,7 +5274,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
         <v>75</v>
       </c>
@@ -5283,7 +5282,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
         <v>118</v>
       </c>
@@ -5291,7 +5290,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="75" t="s">
         <v>123</v>
       </c>
@@ -5299,7 +5298,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
         <v>124</v>
       </c>
@@ -5307,7 +5306,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
         <v>143</v>
       </c>
@@ -5315,222 +5314,222 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="51" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="49" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="49" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="49" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="49" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="49" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="49" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="49" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="49" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="49" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="49" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="51" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="49" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="49" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="49" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="77" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="49" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="49" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="49" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="49" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="49" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="49" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="49" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="49" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="49" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="49" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="49" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="49" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="49" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="49" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="49" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="49" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="49" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="51" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="49" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="51" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="49" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="49" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="49" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="51" t="s">
         <v>179</v>
       </c>
@@ -5549,13 +5548,13 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="102.59765625" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.3984375" customWidth="1"/>
+    <col min="1" max="1" width="102.5703125" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>163</v>
       </c>
@@ -5563,7 +5562,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
         <v>74</v>
       </c>
@@ -5571,7 +5570,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
         <v>171</v>
       </c>
@@ -5579,102 +5578,102 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="49" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="49" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="49" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="49" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="49" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="49" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="49" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="75" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="51" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="49" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="49" t="s">
         <v>162</v>
       </c>
@@ -5686,12 +5685,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4f0e86fe-6553-4263-90f0-a5f33ec9ea3e" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d0fbbff-9b87-4770-aee3-1c1fe6f9d7d6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5912,20 +5913,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4f0e86fe-6553-4263-90f0-a5f33ec9ea3e" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3d0fbbff-9b87-4770-aee3-1c1fe6f9d7d6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A30221F-34E3-405C-B685-3B34165B9140}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25603E06-45B5-4D27-B898-B62DFF416807}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="3d0fbbff-9b87-4770-aee3-1c1fe6f9d7d6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4f0e86fe-6553-4263-90f0-a5f33ec9ea3e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5950,18 +5958,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25603E06-45B5-4D27-B898-B62DFF416807}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A30221F-34E3-405C-B685-3B34165B9140}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="3d0fbbff-9b87-4770-aee3-1c1fe6f9d7d6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4f0e86fe-6553-4263-90f0-a5f33ec9ea3e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>